--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_77.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_77.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Akemi Nakamura</t>
+          <t>Shota Sasaki</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
